--- a/exercicios/1.3-exercicio-pclinics/exe03-pclinics-fisico.excel.xlsx
+++ b/exercicios/1.3-exercicio-pclinics/exe03-pclinics-fisico.excel.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20370"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BB5C0A-2FB6-4C35-B927-EF32D6D73B53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BB5C0A-2FB6-4C35-B927-EF32D6D73B53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pclinics" sheetId="1" r:id="rId1"/>
@@ -691,7 +691,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
